--- a/res/5x45米应力计算结果.xlsx
+++ b/res/5x45米应力计算结果.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -425,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +455,42 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>先张放张</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>架梁</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>跨中桥面板</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>后张-1</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>墩顶桥面板</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>后张-2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>二期</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>运营30Y</t>
         </is>
@@ -478,74 +499,78 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>Xi=0.5</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
           <t>梁顶</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.6633753954650408</v>
-      </c>
       <c r="C2" t="n">
-        <v>0.6180426137358093</v>
+        <v>0.2879110711634502</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4765866148653147</v>
+        <v>0.2425913570354986</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.01880479176038397</v>
+        <v>-0.1065977153002907</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1885389882593197</v>
+        <v>-0.8043727713107945</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.678579945383072</v>
+        <v>-1.211245202601139</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.674119747627932</v>
+        <v>-5.26801625951227</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.527733078057259</v>
+        <v>-5.287919448235751</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-4.995713733103725</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>梁底</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>-14.12099086680954</v>
-      </c>
       <c r="C3" t="n">
-        <v>-13.39320358646405</v>
+        <v>-12.69583725515543</v>
       </c>
       <c r="D3" t="n">
-        <v>-13.16004462762762</v>
+        <v>-11.96825976634783</v>
       </c>
       <c r="E3" t="n">
-        <v>-16.88457286284519</v>
+        <v>-11.55542325471366</v>
       </c>
       <c r="F3" t="n">
-        <v>-16.58913591261303</v>
+        <v>-16.78592895904163</v>
       </c>
       <c r="G3" t="n">
-        <v>-21.51680496405883</v>
+        <v>-16.25959487199268</v>
       </c>
       <c r="H3" t="n">
-        <v>-21.25796755926356</v>
+        <v>-22.25333075519702</v>
       </c>
       <c r="I3" t="n">
-        <v>-19.83219554923482</v>
+        <v>-21.77942346076395</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-20.06729851825448</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>板顶</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
@@ -559,86 +584,93 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.124396742975446</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-2.158093126276325</v>
+        <v>-3.742014272638483</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.203614257774362</v>
+        <v>-3.842161664874904</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-3.780692824191712</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
+          <t>Xi=22.5</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
           <t>梁顶</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>-9.475047761409595</v>
-      </c>
       <c r="C5" t="n">
-        <v>-9.651820627705822</v>
+        <v>-8.936636216516044</v>
       </c>
       <c r="D5" t="n">
-        <v>-21.42113849783422</v>
+        <v>-9.11341092167954</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.57724325413811</v>
+        <v>-21.10977274260674</v>
       </c>
       <c r="F5" t="n">
-        <v>-21.96092246632018</v>
+        <v>-21.45464982777784</v>
       </c>
       <c r="G5" t="n">
-        <v>-22.89377588181251</v>
+        <v>-21.85045660427392</v>
       </c>
       <c r="H5" t="n">
-        <v>-23.40184459897351</v>
+        <v>-23.52917781188131</v>
       </c>
       <c r="I5" t="n">
-        <v>-23.30568279487587</v>
+        <v>-24.42718624088833</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-24.21759278017613</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>梁底</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>-12.05587239808072</v>
-      </c>
       <c r="C6" t="n">
-        <v>-10.86006086342097</v>
+        <v>-10.87397496469391</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4788083200348154</v>
+        <v>-9.678150990689062</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.716526849127854</v>
+        <v>0.8989602594864792</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.956036950045738</v>
+        <v>-4.500590508700265</v>
       </c>
       <c r="G6" t="n">
-        <v>-13.6829974537263</v>
+        <v>-2.753071495637916</v>
       </c>
       <c r="H6" t="n">
-        <v>-11.14095830221327</v>
+        <v>-16.21363063913115</v>
       </c>
       <c r="I6" t="n">
-        <v>-8.9914624669813</v>
+        <v>-12.03006459088607</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-9.330217684858384</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>板顶</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
@@ -646,92 +678,99 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4561373096144868</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4422459042157368</v>
+        <v>0.4765073883189444</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9785085519516418</v>
+        <v>0.464232878286746</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01292365448952659</v>
+        <v>0.7000603352608037</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1989146460829824</v>
+        <v>-1.023703946299682</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1.218776670451244</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
+          <t>Xi=44.5</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
           <t>梁顶</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0.6633749525273444</v>
-      </c>
       <c r="C8" t="n">
-        <v>0.6180421714997543</v>
+        <v>0.2879100349541844</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4765858010362057</v>
+        <v>0.24259032259862</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.346976508659379</v>
+        <v>-0.1065996959963095</v>
       </c>
       <c r="F8" t="n">
-        <v>3.588730057891448</v>
+        <v>-5.502542393365736</v>
       </c>
       <c r="G8" t="n">
-        <v>0.425623769912518</v>
+        <v>0.1304182218583732</v>
       </c>
       <c r="H8" t="n">
-        <v>1.191124349881968</v>
+        <v>-4.428355504316023</v>
       </c>
       <c r="I8" t="n">
-        <v>1.370330046743866</v>
+        <v>-3.109077664351544</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-2.759718125764673</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>梁底</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>-14.12099049400835</v>
-      </c>
       <c r="C9" t="n">
-        <v>-13.39320322492723</v>
+        <v>-12.69583638412487</v>
       </c>
       <c r="D9" t="n">
-        <v>-13.16004394525298</v>
+        <v>-11.96825892377176</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.88748033133344</v>
+        <v>-11.55542159507995</v>
       </c>
       <c r="F9" t="n">
-        <v>-19.90410101624811</v>
+        <v>-12.21547799634143</v>
       </c>
       <c r="G9" t="n">
-        <v>-22.02834440286151</v>
+        <v>-16.95976635914612</v>
       </c>
       <c r="H9" t="n">
-        <v>-24.99456319786497</v>
+        <v>-18.8053670845436</v>
       </c>
       <c r="I9" t="n">
-        <v>-23.64243954775845</v>
+        <v>-23.74889003914622</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-22.3671485499387</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>板顶</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
@@ -745,16 +784,24 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-3.318935723183759</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.993677236968373</v>
+        <v>-4.999664338800645</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.990409233093168</v>
+        <v>-2.662681369719013</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-2.481083898107996</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>